--- a/rent.xlsx
+++ b/rent.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Javascript Chrome\99acres_uploader\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Javascript Chrome\99acres_uploader\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="U2" s="4">
         <f ca="1">TODAY()</f>
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>53</v>
